--- a/data/description/訓練資料欄位說明.xlsx
+++ b/data/description/訓練資料欄位說明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Julie\develop\money_laundry\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzuli\Documents\python\money_laundry\data\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5E45D-67C2-4F13-9A4B-42A805C272BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3125F-C4CC-427D-AAD2-E9676BD3D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="訓練資料欄位說明" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>訓練資料欄位名稱</t>
   </si>
@@ -336,11 +336,6 @@
   </si>
   <si>
     <t>1外幣:X台幣。Ex:美金對台幣為30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始幣別，不是台幣
-負值代表沖正交易</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -393,6 +388,21 @@
   </si>
   <si>
     <t>本月分期消費金額</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>負數代表溢繳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>usgam &gt; cycam，可能是因為款項積欠太久，
+循環利息不斷往上加導致的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始幣別，不是台幣
+tx_amt * exchg_rate = 台幣
+負值代表沖正交易</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1275,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1589,21 +1605,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="76.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1620,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -1632,7 +1648,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>93</v>
       </c>
@@ -1661,7 +1677,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>13</v>
@@ -1675,8 +1691,11 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>15</v>
@@ -1690,8 +1709,11 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>17</v>
@@ -1706,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>19</v>
@@ -1721,13 +1743,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1736,7 +1758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>78</v>
@@ -1751,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>22</v>
@@ -1766,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>70</v>
       </c>
@@ -1782,9 +1804,9 @@
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1799,10 +1821,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1814,7 +1836,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>27</v>
@@ -1829,7 +1851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>29</v>
@@ -1844,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1878,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>31</v>
@@ -1866,7 +1888,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>33</v>
@@ -1879,7 +1901,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>35</v>
@@ -1892,7 +1914,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>37</v>
@@ -1907,7 +1929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>39</v>
@@ -1920,7 +1942,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
@@ -1933,9 +1955,9 @@
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1948,7 +1970,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>43</v>
@@ -1963,7 +1985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>45</v>
@@ -1978,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>47</v>
@@ -1991,7 +2013,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="48.4" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>49</v>
@@ -2006,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>51</v>
@@ -2025,7 +2047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>53</v>
@@ -2040,7 +2062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>55</v>
@@ -2055,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>57</v>
@@ -2070,7 +2092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>58</v>
@@ -2085,7 +2107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
         <v>59</v>
@@ -2100,7 +2122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
@@ -2112,9 +2134,9 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -2129,7 +2151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>62</v>
@@ -2144,7 +2166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>64</v>
@@ -2159,7 +2181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
@@ -2172,7 +2194,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
         <v>77</v>
@@ -2187,7 +2209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -2199,7 +2221,7 @@
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
         <v>79</v>
@@ -2214,9 +2236,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="107.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>94</v>
@@ -2225,36 +2247,36 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="1:5" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="107.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>

--- a/data/description/訓練資料欄位說明.xlsx
+++ b/data/description/訓練資料欄位說明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzuli\Documents\python\money_laundry\data\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3125F-C4CC-427D-AAD2-E9676BD3D747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C95413-FCE2-4A58-88E8-EFE384BF1529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>訓練資料欄位名稱</t>
   </si>
@@ -79,9 +79,6 @@
     <t>本月分期預借現金金額</t>
   </si>
   <si>
-    <t>csamt</t>
-  </si>
-  <si>
     <t>本月預借現金金額</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>cucah</t>
   </si>
   <si>
-    <t>本月借現金額</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -218,12 +212,6 @@
   </si>
   <si>
     <t>交易金額(折合美金)</t>
-  </si>
-  <si>
-    <t>alert主鍵發生日期</t>
-  </si>
-  <si>
-    <t>alert主鍵報SAR與否</t>
   </si>
   <si>
     <t>(0=未報SAR；1=有報SAR)</t>
@@ -403,6 +391,30 @@
     <t>原始幣別，不是台幣
 tx_amt * exchg_rate = 台幣
 負值代表沖正交易</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>csamt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert主鍵發生日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert主鍵報SAR與否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>經過神秘轉換</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月借現金額</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1264,6 +1276,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1275,12 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1605,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1615,13 +1627,13 @@
     <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.796875" customWidth="1"/>
     <col min="6" max="6" width="42.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1638,10 +1650,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1664,7 +1676,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1691,8 +1703,8 @@
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>109</v>
+      <c r="F5" s="24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1709,8 +1721,8 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>108</v>
+      <c r="F6" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1731,10 +1743,10 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1746,10 +1758,10 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1761,10 +1773,10 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1776,10 +1788,10 @@
     <row r="11" spans="1:6" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1788,12 +1800,12 @@
         <v>9</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>4</v>
@@ -1806,69 +1818,69 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1881,20 +1893,20 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1904,10 +1916,10 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1917,10 +1929,10 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1932,10 +1944,10 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1944,7 +1956,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>4</v>
@@ -1957,13 +1969,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1973,10 +1985,10 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1988,10 +2000,10 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2003,10 +2015,10 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2016,10 +2028,10 @@
     <row r="28" spans="1:6" ht="48.4" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2028,47 +2040,47 @@
         <v>9</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -2080,51 +2092,51 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -2136,13 +2148,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -2154,25 +2166,25 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2183,13 +2195,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -2197,10 +2209,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>11</v>
@@ -2211,70 +2223,70 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="107.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" ht="107.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+        <v>101</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
